--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#strong.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#strong.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>##group</t>
   </si>
 </sst>
 </file>
@@ -146,8 +149,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J62" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:J62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:J63" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="B3:J63"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,1773 +524,1778 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>150</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J9">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J10">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
         <v>26</v>
-      </c>
-      <c r="H11">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>550</v>
-      </c>
-      <c r="J11">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>550</v>
+      </c>
+      <c r="J12">
         <v>29</v>
-      </c>
-      <c r="F12">
-        <v>34</v>
-      </c>
-      <c r="G12">
-        <v>27</v>
-      </c>
-      <c r="H12">
-        <v>45</v>
-      </c>
-      <c r="I12">
-        <v>650</v>
-      </c>
-      <c r="J12">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F13">
+        <v>34</v>
+      </c>
+      <c r="G13">
         <v>27</v>
       </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
       <c r="H13">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I13">
-        <v>140</v>
+        <v>650</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J17">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J19">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>33</v>
+      </c>
+      <c r="G20">
         <v>32</v>
       </c>
-      <c r="F20">
-        <v>34</v>
-      </c>
-      <c r="G20">
-        <v>34</v>
-      </c>
       <c r="H20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J20">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J21">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
         <v>36</v>
       </c>
-      <c r="G22">
-        <v>38</v>
-      </c>
       <c r="H22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J22">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J26">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="J27">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I28">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J28">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J29">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I30">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J30">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>500</v>
+      </c>
+      <c r="J31">
         <v>26</v>
-      </c>
-      <c r="H31">
-        <v>40</v>
-      </c>
-      <c r="I31">
-        <v>550</v>
-      </c>
-      <c r="J31">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32">
+        <v>28</v>
+      </c>
+      <c r="F32">
+        <v>33</v>
+      </c>
+      <c r="G32">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>40</v>
+      </c>
+      <c r="I32">
+        <v>550</v>
+      </c>
+      <c r="J32">
         <v>29</v>
-      </c>
-      <c r="F32">
-        <v>34</v>
-      </c>
-      <c r="G32">
-        <v>27</v>
-      </c>
-      <c r="H32">
-        <v>45</v>
-      </c>
-      <c r="I32">
-        <v>650</v>
-      </c>
-      <c r="J32">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I33">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J35">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J36">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="J37">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I38">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J38">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H39">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I39">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J39">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I40">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J40">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>500</v>
+      </c>
+      <c r="J41">
         <v>26</v>
-      </c>
-      <c r="H41">
-        <v>40</v>
-      </c>
-      <c r="I41">
-        <v>550</v>
-      </c>
-      <c r="J41">
-        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42">
+        <v>28</v>
+      </c>
+      <c r="F42">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <v>550</v>
+      </c>
+      <c r="J42">
         <v>29</v>
-      </c>
-      <c r="F42">
-        <v>34</v>
-      </c>
-      <c r="G42">
-        <v>27</v>
-      </c>
-      <c r="H42">
-        <v>45</v>
-      </c>
-      <c r="I42">
-        <v>650</v>
-      </c>
-      <c r="J42">
-        <v>32</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F43">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I43">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J44">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J45">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I46">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J46">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I47">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="J47">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I48">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J48">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H49">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I49">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J49">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H50">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I50">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J50">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F51">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51">
+        <v>25</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="I51">
+        <v>500</v>
+      </c>
+      <c r="J51">
         <v>26</v>
-      </c>
-      <c r="H51">
-        <v>40</v>
-      </c>
-      <c r="I51">
-        <v>550</v>
-      </c>
-      <c r="J51">
-        <v>29</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52">
+        <v>28</v>
+      </c>
+      <c r="F52">
+        <v>33</v>
+      </c>
+      <c r="G52">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <v>40</v>
+      </c>
+      <c r="I52">
+        <v>550</v>
+      </c>
+      <c r="J52">
         <v>29</v>
-      </c>
-      <c r="F52">
-        <v>34</v>
-      </c>
-      <c r="G52">
-        <v>27</v>
-      </c>
-      <c r="H52">
-        <v>45</v>
-      </c>
-      <c r="I52">
-        <v>650</v>
-      </c>
-      <c r="J52">
-        <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F53">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I53">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J54">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <v>5</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J55">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>5</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I56">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J56">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <v>5</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F57">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I57">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="J57">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>5</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I58">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="J58">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <v>5</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F59">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I59">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="J59">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F60">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I60">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J60">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>5</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F61">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61">
+        <v>25</v>
+      </c>
+      <c r="H61">
+        <v>35</v>
+      </c>
+      <c r="I61">
+        <v>500</v>
+      </c>
+      <c r="J61">
         <v>26</v>
-      </c>
-      <c r="H61">
-        <v>40</v>
-      </c>
-      <c r="I61">
-        <v>550</v>
-      </c>
-      <c r="J61">
-        <v>29</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>28</v>
+      </c>
+      <c r="F62">
+        <v>33</v>
+      </c>
+      <c r="G62">
+        <v>26</v>
+      </c>
+      <c r="H62">
+        <v>40</v>
+      </c>
+      <c r="I62">
+        <v>550</v>
+      </c>
+      <c r="J62">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>60</v>
       </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62">
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
         <v>10</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>29</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <v>34</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>27</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <v>45</v>
       </c>
-      <c r="I62">
+      <c r="I63">
         <v>650</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>32</v>
       </c>
     </row>
